--- a/biology/Zoologie/Gasteropelecus_levis/Gasteropelecus_levis.xlsx
+++ b/biology/Zoologie/Gasteropelecus_levis/Gasteropelecus_levis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-hachette Gasteropelecus levis (syn. Pterodiscus levis) est un poisson appartenant à la famille des Gasteropelecidae. Il est souvent élevé en aquarium, du fait de sa forme originale. Il vit juste sous la surface, et peut parfois sauter hors de l'eau pour attraper des insectes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-hachette Gasteropelecus levis (syn. Pterodiscus levis) est un poisson appartenant à la famille des Gasteropelecidae. Il est souvent élevé en aquarium, du fait de sa forme originale. Il vit juste sous la surface, et peut parfois sauter hors de l'eau pour attraper des insectes.
 </t>
         </is>
       </c>
